--- a/pyxform/tests/example_xls/osm.xlsx
+++ b/pyxform/tests/example_xls/osm.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="51">
   <si>
     <t>type</t>
   </si>
@@ -96,9 +96,6 @@
   </si>
   <si>
     <t>green</t>
-  </si>
-  <si>
-    <t>tag</t>
   </si>
   <si>
     <t>building_tags</t>
@@ -471,7 +468,7 @@
   <dimension ref="A1:C65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -481,12 +478,12 @@
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="14.4285714285714"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -494,76 +491,76 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>13</v>
@@ -571,47 +568,47 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="0" t="s">
         <v>42</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B12" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="0" t="s">
         <v>44</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B13" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="0" t="s">
         <v>46</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -656,18 +653,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
